--- a/Datos/Database by set/Set with text box/Xlsx sets/Battle for Zendikar Tokens (TBFZ).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Battle for Zendikar Tokens (TBFZ).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,329 +444,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Dragon</t>
+          <t>('Eldrazi', ['Token Creature — Eldrazi', '10/10'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Eldrazi Scion', ['Token Creature — Eldrazi Scion', 'Sacrifice this creature: Add {C}.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>('Elemental', ['Token Creature — Elemental', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eldrazi</t>
+          <t>('Gideon, Ally of Zendikar Emblem', ['Emblem — Gideon', 'Creatures you control get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi</t>
+          <t>('Kiora, Master of the Depths Emblem', ['Emblem — Kiora', 'Whenever a creature enters the battlefield under your control, you may have it fight target creature.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>('Knight Ally', ['Token Creature — Knight Ally', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eldrazi Scion</t>
+          <t>('Kor Ally', ['Token Creature — Kor Ally', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi Scion</t>
+          <t>('Ob Nixilis Reignited Emblem', ['Emblem — Nixilis', 'Whenever a player draws a card, you lose 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sacrifice this creature: Add {C}.</t>
+          <t>('Octopus', ['Token Creature — Octopus', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Eldrazi Scion</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Token Creature — Eldrazi Scion</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sacrifice this creature: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Eldrazi Scion</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Token Creature — Eldrazi Scion</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sacrifice this creature: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Trample, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gideon, Ally of Zendikar Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Emblem — Gideon</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Creatures you control get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Kiora, Master of the Depths Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Emblem — Kiora</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Whenever a creature enters the battlefield under your control, you may have it fight target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Knight Ally</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Knight Ally</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Kor Ally</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Token Creature — Kor Ally</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Ob Nixilis Reignited Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Emblem — Nixilis</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Whenever a player draws a card, you lose 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Octopus</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Token Creature — Octopus</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>8/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Token Creature — Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Plant', ['Token Creature — Plant', '1/1'])</t>
         </is>
       </c>
     </row>
